--- a/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>GRCL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +708,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +740,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +772,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +804,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,22 +820,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>16500</v>
+        <v>9500</v>
       </c>
       <c r="E12" s="3">
-        <v>5800</v>
+        <v>16900</v>
       </c>
       <c r="F12" s="3">
-        <v>12400</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>5900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>12700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -837,8 +850,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +882,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +914,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +946,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,22 +959,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19700</v>
+        <v>13300</v>
       </c>
       <c r="E17" s="3">
-        <v>7000</v>
+        <v>20100</v>
       </c>
       <c r="F17" s="3">
-        <v>15400</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>7200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -963,8 +989,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,13 +1001,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-7000</v>
+        <v>-20100</v>
       </c>
       <c r="F18" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-7200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-15700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1021,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,8 +1037,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1014,13 +1047,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
-        <v>700</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>800</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1067,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1043,13 +1079,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-17900</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-14400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1063,22 +1099,25 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1092,22 +1131,25 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19600</v>
+        <v>-13000</v>
       </c>
       <c r="E23" s="3">
-        <v>-6500</v>
+        <v>-20000</v>
       </c>
       <c r="F23" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-6700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-15000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1121,8 +1163,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1195,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,22 +1227,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19600</v>
+        <v>-13000</v>
       </c>
       <c r="E26" s="3">
-        <v>-6500</v>
+        <v>-20000</v>
       </c>
       <c r="F26" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-6700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-15000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1208,22 +1259,25 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26700</v>
+        <v>-15600</v>
       </c>
       <c r="E27" s="3">
-        <v>-8200</v>
+        <v>-27300</v>
       </c>
       <c r="F27" s="3">
-        <v>-22500</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-23000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1237,8 +1291,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1323,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1355,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1387,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,8 +1419,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1362,13 +1431,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>-800</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1382,22 +1451,25 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-26700</v>
+        <v>-15600</v>
       </c>
       <c r="E33" s="3">
-        <v>-8200</v>
+        <v>-27300</v>
       </c>
       <c r="F33" s="3">
-        <v>-22500</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-23000</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1483,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,22 +1515,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-26700</v>
+        <v>-15600</v>
       </c>
       <c r="E35" s="3">
-        <v>-8200</v>
+        <v>-27300</v>
       </c>
       <c r="F35" s="3">
-        <v>-22500</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-23000</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1469,28 +1547,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1584,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1600,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,16 +1614,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24000</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>117700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24500</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1558,16 +1644,19 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3800</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3900</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1587,17 +1676,20 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>4100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1708,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,16 +1740,19 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>6600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1200</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1674,16 +1772,19 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>33000</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>127200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>33700</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1703,8 +1804,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,16 +1836,19 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>18600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17500</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1761,8 +1868,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +1900,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1932,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,17 +1964,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1996,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,16 +2028,19 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>52000</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+        <v>150500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>53100</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1935,8 +2060,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2076,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,8 +2090,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1990,16 +2120,19 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>8000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2019,16 +2152,19 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2048,16 +2184,19 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4900</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+        <v>14600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5000</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2077,16 +2216,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6800</v>
+        <v>8100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2106,8 +2248,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2135,8 +2280,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2312,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2344,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,16 +2376,19 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11700</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+        <v>22700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2251,8 +2408,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2424,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2454,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,16 +2486,19 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>112000</v>
+        <v>219600</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>114300</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2351,8 +2518,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,16 +2550,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-70900</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+        <v>-88000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-72400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2409,8 +2582,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2614,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2646,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,16 +2678,19 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-71700</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+        <v>-91700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-73200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2525,8 +2710,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,28 +2742,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,22 +2779,25 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-26700</v>
+        <v>-15600</v>
       </c>
       <c r="E81" s="3">
-        <v>-8200</v>
+        <v>-27300</v>
       </c>
       <c r="F81" s="3">
-        <v>-22500</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-23000</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2811,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,19 +2827,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
-        <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>600</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2659,8 +2857,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2889,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2921,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2953,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2985,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,19 +3017,22 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-20500</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-15700</v>
+        <v>-20900</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2833,8 +3049,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,19 +3065,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-10000</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-7100</v>
+        <v>-10200</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2875,8 +3095,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3127,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,19 +3159,22 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-12500</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>6500</v>
+        <v>-12800</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2962,8 +3191,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3207,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3237,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3269,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3301,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,19 +3333,22 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>9700</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>60300</v>
+        <v>9900</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3120,19 +3365,22 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F101" s="3">
-        <v>500</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3149,19 +3397,22 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-23700</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="F102" s="3">
-        <v>51700</v>
+        <v>-24200</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3176,6 +3427,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
@@ -827,16 +827,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="E12" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="F12" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G12" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -966,16 +966,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="E17" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="F17" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="G17" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1001,13 +1001,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-20100</v>
+        <v>-19900</v>
       </c>
       <c r="F18" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="G18" s="3">
-        <v>-15700</v>
+        <v>-15500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1053,7 +1053,7 @@
         <v>500</v>
       </c>
       <c r="G20" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1079,13 +1079,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-17900</v>
+        <v>-17700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1140,16 +1140,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="E23" s="3">
-        <v>-20000</v>
+        <v>-19800</v>
       </c>
       <c r="F23" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="G23" s="3">
-        <v>-15000</v>
+        <v>-14800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1236,16 +1236,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="E26" s="3">
-        <v>-20000</v>
+        <v>-19800</v>
       </c>
       <c r="F26" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="G26" s="3">
-        <v>-15000</v>
+        <v>-14800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1268,16 +1268,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="E27" s="3">
-        <v>-27300</v>
+        <v>-26900</v>
       </c>
       <c r="F27" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="G27" s="3">
-        <v>-23000</v>
+        <v>-22700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1437,7 +1437,7 @@
         <v>-500</v>
       </c>
       <c r="G32" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1460,16 +1460,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="E33" s="3">
-        <v>-27300</v>
+        <v>-26900</v>
       </c>
       <c r="F33" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="G33" s="3">
-        <v>-23000</v>
+        <v>-22700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1524,16 +1524,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="E35" s="3">
-        <v>-27300</v>
+        <v>-26900</v>
       </c>
       <c r="F35" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="G35" s="3">
-        <v>-23000</v>
+        <v>-22700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1621,10 +1621,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>117700</v>
+        <v>116100</v>
       </c>
       <c r="E41" s="3">
-        <v>24500</v>
+        <v>24100</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1656,7 +1656,7 @@
         <v>2900</v>
       </c>
       <c r="E42" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1749,7 +1749,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="E45" s="3">
         <v>1200</v>
@@ -1781,10 +1781,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>127200</v>
+        <v>125600</v>
       </c>
       <c r="E46" s="3">
-        <v>33700</v>
+        <v>33200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1845,10 +1845,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="E48" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -2037,10 +2037,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>150500</v>
+        <v>148600</v>
       </c>
       <c r="E54" s="3">
-        <v>53100</v>
+        <v>52400</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -2129,10 +2129,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="E58" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2161,10 +2161,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="E59" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2193,7 +2193,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="E60" s="3">
         <v>5000</v>
@@ -2225,10 +2225,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="E61" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="E66" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2495,10 +2495,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>219600</v>
+        <v>216700</v>
       </c>
       <c r="E70" s="3">
-        <v>114300</v>
+        <v>112900</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2559,10 +2559,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-88000</v>
+        <v>-86800</v>
       </c>
       <c r="E72" s="3">
-        <v>-72400</v>
+        <v>-71500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2687,10 +2687,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-91700</v>
+        <v>-90500</v>
       </c>
       <c r="E76" s="3">
-        <v>-73200</v>
+        <v>-72200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2788,16 +2788,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="E81" s="3">
-        <v>-27300</v>
+        <v>-26900</v>
       </c>
       <c r="F81" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="G81" s="3">
-        <v>-23000</v>
+        <v>-22700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -3029,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-20900</v>
+        <v>-20700</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -3171,7 +3171,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-12800</v>
+        <v>-12600</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -3345,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -3409,7 +3409,7 @@
         <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-24200</v>
+        <v>-23900</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="92">
   <si>
     <t>GRCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -743,8 +755,17 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,8 +796,17 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +837,17 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -821,31 +860,34 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9300</v>
+        <v>13900</v>
       </c>
       <c r="E12" s="3">
-        <v>16700</v>
+        <v>10200</v>
       </c>
       <c r="F12" s="3">
-        <v>5800</v>
+        <v>10200</v>
       </c>
       <c r="G12" s="3">
-        <v>12500</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>9500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>12700</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -853,8 +895,17 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,8 +936,17 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -917,8 +977,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -949,8 +1018,17 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -960,31 +1038,34 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13200</v>
+        <v>20600</v>
       </c>
       <c r="E17" s="3">
-        <v>19900</v>
+        <v>15000</v>
       </c>
       <c r="F17" s="3">
-        <v>7100</v>
+        <v>15200</v>
       </c>
       <c r="G17" s="3">
-        <v>15500</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>13400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>20200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -992,22 +1073,31 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-15500</v>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,8 +1114,17 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1038,22 +1137,25 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
-        <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>700</v>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1070,22 +1172,31 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>-17700</v>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
-        <v>-14200</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1102,31 +1213,40 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1134,31 +1254,40 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12900</v>
+        <v>-20200</v>
       </c>
       <c r="E23" s="3">
-        <v>-19800</v>
+        <v>-15100</v>
       </c>
       <c r="F23" s="3">
-        <v>-6600</v>
+        <v>-15300</v>
       </c>
       <c r="G23" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-13100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-15000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1166,8 +1295,17 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1198,8 +1336,17 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1230,31 +1377,40 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12900</v>
+        <v>-20200</v>
       </c>
       <c r="E26" s="3">
-        <v>-19800</v>
+        <v>-15100</v>
       </c>
       <c r="F26" s="3">
-        <v>-6600</v>
+        <v>-15300</v>
       </c>
       <c r="G26" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-13100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-15000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1262,31 +1418,40 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15400</v>
+        <v>-20200</v>
       </c>
       <c r="E27" s="3">
-        <v>-26900</v>
+        <v>-15100</v>
       </c>
       <c r="F27" s="3">
-        <v>-8200</v>
+        <v>-15600</v>
       </c>
       <c r="G27" s="3">
-        <v>-22700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-15600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-23100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1294,8 +1459,17 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1326,8 +1500,17 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,8 +1541,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1390,8 +1582,17 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,22 +1623,31 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-700</v>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1454,31 +1664,40 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15400</v>
+        <v>-20200</v>
       </c>
       <c r="E33" s="3">
-        <v>-26900</v>
+        <v>-15100</v>
       </c>
       <c r="F33" s="3">
-        <v>-8200</v>
+        <v>-15600</v>
       </c>
       <c r="G33" s="3">
-        <v>-22700</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-15600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-23100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1486,8 +1705,17 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1518,31 +1746,40 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15400</v>
+        <v>-20200</v>
       </c>
       <c r="E35" s="3">
-        <v>-26900</v>
+        <v>-15100</v>
       </c>
       <c r="F35" s="3">
-        <v>-8200</v>
+        <v>-15600</v>
       </c>
       <c r="G35" s="3">
-        <v>-22700</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-15600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-23100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1550,45 +1787,63 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1601,8 +1856,11 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1615,25 +1873,28 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>116100</v>
+        <v>305900</v>
       </c>
       <c r="E41" s="3">
-        <v>24100</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>320900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>337800</v>
+      </c>
+      <c r="G41" s="3">
+        <v>118100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>24500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1647,25 +1908,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2900</v>
+        <v>600</v>
       </c>
       <c r="E42" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1679,25 +1949,34 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>4100</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1711,8 +1990,17 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1743,26 +2031,35 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="E45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,25 +2072,34 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>125600</v>
+        <v>316000</v>
       </c>
       <c r="E46" s="3">
-        <v>33200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>331400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>348200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>127700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>33800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1807,8 +2113,17 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1839,25 +2154,34 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18300</v>
+        <v>24400</v>
       </c>
       <c r="E48" s="3">
-        <v>17300</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>25300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>18600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>17600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1871,8 +2195,17 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1903,8 +2236,17 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1935,8 +2277,17 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1967,26 +2318,35 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4700</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,8 +2359,17 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2031,25 +2400,34 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>148600</v>
+        <v>343900</v>
       </c>
       <c r="E54" s="3">
-        <v>52400</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>358800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>373900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>151100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>53300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2063,8 +2441,17 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2077,8 +2464,11 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2091,8 +2481,11 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2123,25 +2516,34 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7800</v>
+        <v>9100</v>
       </c>
       <c r="E58" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>9100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2155,25 +2557,34 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6500</v>
+        <v>12400</v>
       </c>
       <c r="E59" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>11600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2187,26 +2598,35 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14400</v>
+        <v>21500</v>
       </c>
       <c r="E60" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2219,25 +2639,34 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8000</v>
+        <v>8700</v>
       </c>
       <c r="E61" s="3">
-        <v>6900</v>
+        <v>8700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2251,31 +2680,40 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>3200</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2283,8 +2721,17 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2315,8 +2762,17 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2347,8 +2803,17 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2379,25 +2844,34 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22400</v>
+        <v>34600</v>
       </c>
       <c r="E66" s="3">
-        <v>11800</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>34300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>30300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>22700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>12000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2885,17 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2425,8 +2908,11 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2457,8 +2943,17 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2489,25 +2984,34 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>216700</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>112900</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>220400</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>114700</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2521,8 +3025,17 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2553,25 +3066,34 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-86800</v>
+        <v>-139200</v>
       </c>
       <c r="E72" s="3">
-        <v>-71500</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-119000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-103900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-72700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2585,8 +3107,17 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2617,8 +3148,17 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2649,8 +3189,17 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2681,25 +3230,34 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-90500</v>
+        <v>309300</v>
       </c>
       <c r="E76" s="3">
-        <v>-72200</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>324500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>343600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-73400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2713,8 +3271,17 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2745,68 +3312,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15400</v>
+        <v>-20200</v>
       </c>
       <c r="E81" s="3">
-        <v>-26900</v>
+        <v>-15100</v>
       </c>
       <c r="F81" s="3">
-        <v>-8200</v>
+        <v>-15600</v>
       </c>
       <c r="G81" s="3">
-        <v>-22700</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-15600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-23100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2814,8 +3399,17 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2828,22 +3422,25 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
-        <v>1900</v>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>3400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2860,8 +3457,17 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2892,8 +3498,17 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2924,8 +3539,17 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2956,8 +3580,17 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2988,8 +3621,17 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3020,22 +3662,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
-        <v>-20700</v>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>-31000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3052,8 +3703,17 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3066,22 +3726,25 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>-10100</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-12400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3098,8 +3761,17 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3130,8 +3802,17 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3162,22 +3843,31 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>-12600</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-14700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3194,8 +3884,17 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3208,8 +3907,11 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3240,8 +3942,17 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3272,8 +3983,17 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3304,8 +4024,17 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3336,22 +4065,31 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>9800</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>118400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3368,22 +4106,31 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
-        <v>-400</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>-3500</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3400,22 +4147,31 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>-23900</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>69200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3430,6 +4186,15 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
@@ -869,25 +869,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="E12" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="F12" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="G12" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="H12" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="I12" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J12" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -1047,25 +1047,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="E17" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="F17" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="G17" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="H17" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="I17" s="3">
         <v>7200</v>
       </c>
       <c r="J17" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1269,25 +1269,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-20200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-15100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-15000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1392,25 +1392,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-20200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-15100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-15000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1433,25 +1433,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20200</v>
+        <v>-20400</v>
       </c>
       <c r="E27" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="F27" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="G27" s="3">
-        <v>-15600</v>
+        <v>-15800</v>
       </c>
       <c r="H27" s="3">
-        <v>-27400</v>
+        <v>-27600</v>
       </c>
       <c r="I27" s="3">
         <v>-8400</v>
       </c>
       <c r="J27" s="3">
-        <v>-23100</v>
+        <v>-23300</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1679,25 +1679,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20200</v>
+        <v>-20400</v>
       </c>
       <c r="E33" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="F33" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="G33" s="3">
-        <v>-15600</v>
+        <v>-15800</v>
       </c>
       <c r="H33" s="3">
-        <v>-27400</v>
+        <v>-27600</v>
       </c>
       <c r="I33" s="3">
         <v>-8400</v>
       </c>
       <c r="J33" s="3">
-        <v>-23100</v>
+        <v>-23300</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1761,25 +1761,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20200</v>
+        <v>-20400</v>
       </c>
       <c r="E35" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="F35" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="G35" s="3">
-        <v>-15600</v>
+        <v>-15800</v>
       </c>
       <c r="H35" s="3">
-        <v>-27400</v>
+        <v>-27600</v>
       </c>
       <c r="I35" s="3">
         <v>-8400</v>
       </c>
       <c r="J35" s="3">
-        <v>-23100</v>
+        <v>-23300</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1882,19 +1882,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>305900</v>
+        <v>308300</v>
       </c>
       <c r="E41" s="3">
-        <v>320900</v>
+        <v>323400</v>
       </c>
       <c r="F41" s="3">
-        <v>337800</v>
+        <v>340400</v>
       </c>
       <c r="G41" s="3">
-        <v>118100</v>
+        <v>119000</v>
       </c>
       <c r="H41" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1973,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="H43" s="3">
         <v>4200</v>
@@ -2046,13 +2046,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E45" s="3">
         <v>9900</v>
       </c>
       <c r="F45" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="G45" s="3">
         <v>1300</v>
@@ -2087,19 +2087,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>316000</v>
+        <v>318400</v>
       </c>
       <c r="E46" s="3">
-        <v>331400</v>
+        <v>333900</v>
       </c>
       <c r="F46" s="3">
-        <v>348200</v>
+        <v>350900</v>
       </c>
       <c r="G46" s="3">
-        <v>127700</v>
+        <v>128600</v>
       </c>
       <c r="H46" s="3">
-        <v>33800</v>
+        <v>34000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2169,19 +2169,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="E48" s="3">
-        <v>25300</v>
+        <v>25500</v>
       </c>
       <c r="F48" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="G48" s="3">
-        <v>18600</v>
+        <v>18800</v>
       </c>
       <c r="H48" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2415,19 +2415,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>343900</v>
+        <v>346600</v>
       </c>
       <c r="E54" s="3">
-        <v>358800</v>
+        <v>361600</v>
       </c>
       <c r="F54" s="3">
-        <v>373900</v>
+        <v>376700</v>
       </c>
       <c r="G54" s="3">
-        <v>151100</v>
+        <v>152200</v>
       </c>
       <c r="H54" s="3">
-        <v>53300</v>
+        <v>53700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2531,13 +2531,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="E58" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="F58" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="G58" s="3">
         <v>8000</v>
@@ -2572,16 +2572,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="E59" s="3">
         <v>11600</v>
       </c>
       <c r="F59" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G59" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H59" s="3">
         <v>1900</v>
@@ -2613,19 +2613,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="E60" s="3">
-        <v>20600</v>
+        <v>20800</v>
       </c>
       <c r="F60" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="G60" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="H60" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2654,16 +2654,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="E61" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="F61" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="G61" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="H61" s="3">
         <v>7000</v>
@@ -2695,13 +2695,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E62" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F62" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2859,19 +2859,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34600</v>
+        <v>34900</v>
       </c>
       <c r="E66" s="3">
-        <v>34300</v>
+        <v>34500</v>
       </c>
       <c r="F66" s="3">
-        <v>30300</v>
+        <v>30500</v>
       </c>
       <c r="G66" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="H66" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>220400</v>
+        <v>222100</v>
       </c>
       <c r="H70" s="3">
-        <v>114700</v>
+        <v>115600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3081,19 +3081,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-139200</v>
+        <v>-140300</v>
       </c>
       <c r="E72" s="3">
-        <v>-119000</v>
+        <v>-119900</v>
       </c>
       <c r="F72" s="3">
-        <v>-103900</v>
+        <v>-104700</v>
       </c>
       <c r="G72" s="3">
-        <v>-88300</v>
+        <v>-89000</v>
       </c>
       <c r="H72" s="3">
-        <v>-72700</v>
+        <v>-73200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3245,19 +3245,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>309300</v>
+        <v>311700</v>
       </c>
       <c r="E76" s="3">
-        <v>324500</v>
+        <v>327000</v>
       </c>
       <c r="F76" s="3">
-        <v>343600</v>
+        <v>346200</v>
       </c>
       <c r="G76" s="3">
-        <v>-92000</v>
+        <v>-92700</v>
       </c>
       <c r="H76" s="3">
-        <v>-73400</v>
+        <v>-74000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3373,25 +3373,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20200</v>
+        <v>-20400</v>
       </c>
       <c r="E81" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="F81" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="G81" s="3">
-        <v>-15600</v>
+        <v>-15800</v>
       </c>
       <c r="H81" s="3">
-        <v>-27400</v>
+        <v>-27600</v>
       </c>
       <c r="I81" s="3">
         <v>-8400</v>
       </c>
       <c r="J81" s="3">
-        <v>-23100</v>
+        <v>-23300</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3686,7 +3686,7 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-31000</v>
+        <v>-31300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3744,7 +3744,7 @@
         <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>-12400</v>
+        <v>-12500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3867,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-14700</v>
+        <v>-14800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -4089,7 +4089,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>118400</v>
+        <v>119300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -4171,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>69200</v>
+        <v>69800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
@@ -869,25 +869,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="E12" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="F12" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="G12" s="3">
-        <v>9600</v>
+        <v>8900</v>
       </c>
       <c r="H12" s="3">
-        <v>17100</v>
+        <v>15900</v>
       </c>
       <c r="I12" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="J12" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -1047,25 +1047,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20700</v>
+        <v>19400</v>
       </c>
       <c r="E17" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="F17" s="3">
-        <v>15300</v>
+        <v>14300</v>
       </c>
       <c r="G17" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="H17" s="3">
-        <v>20300</v>
+        <v>19000</v>
       </c>
       <c r="I17" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="J17" s="3">
-        <v>15900</v>
+        <v>14800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1269,25 +1269,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20400</v>
+        <v>-19100</v>
       </c>
       <c r="E23" s="3">
-        <v>-15200</v>
+        <v>-14200</v>
       </c>
       <c r="F23" s="3">
-        <v>-15400</v>
+        <v>-14400</v>
       </c>
       <c r="G23" s="3">
-        <v>-13200</v>
+        <v>-12300</v>
       </c>
       <c r="H23" s="3">
-        <v>-20200</v>
+        <v>-18900</v>
       </c>
       <c r="I23" s="3">
-        <v>-6800</v>
+        <v>-6300</v>
       </c>
       <c r="J23" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1392,25 +1392,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20400</v>
+        <v>-19100</v>
       </c>
       <c r="E26" s="3">
-        <v>-15200</v>
+        <v>-14200</v>
       </c>
       <c r="F26" s="3">
-        <v>-15400</v>
+        <v>-14400</v>
       </c>
       <c r="G26" s="3">
-        <v>-13200</v>
+        <v>-12300</v>
       </c>
       <c r="H26" s="3">
-        <v>-20200</v>
+        <v>-18900</v>
       </c>
       <c r="I26" s="3">
-        <v>-6800</v>
+        <v>-6300</v>
       </c>
       <c r="J26" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1433,25 +1433,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20400</v>
+        <v>-19100</v>
       </c>
       <c r="E27" s="3">
-        <v>-15200</v>
+        <v>-14200</v>
       </c>
       <c r="F27" s="3">
-        <v>-15700</v>
+        <v>-14700</v>
       </c>
       <c r="G27" s="3">
-        <v>-15800</v>
+        <v>-14700</v>
       </c>
       <c r="H27" s="3">
-        <v>-27600</v>
+        <v>-25700</v>
       </c>
       <c r="I27" s="3">
-        <v>-8400</v>
+        <v>-7900</v>
       </c>
       <c r="J27" s="3">
-        <v>-23300</v>
+        <v>-21700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1679,25 +1679,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20400</v>
+        <v>-19100</v>
       </c>
       <c r="E33" s="3">
-        <v>-15200</v>
+        <v>-14200</v>
       </c>
       <c r="F33" s="3">
-        <v>-15700</v>
+        <v>-14700</v>
       </c>
       <c r="G33" s="3">
-        <v>-15800</v>
+        <v>-14700</v>
       </c>
       <c r="H33" s="3">
-        <v>-27600</v>
+        <v>-25700</v>
       </c>
       <c r="I33" s="3">
-        <v>-8400</v>
+        <v>-7900</v>
       </c>
       <c r="J33" s="3">
-        <v>-23300</v>
+        <v>-21700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1761,25 +1761,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20400</v>
+        <v>-19100</v>
       </c>
       <c r="E35" s="3">
-        <v>-15200</v>
+        <v>-14200</v>
       </c>
       <c r="F35" s="3">
-        <v>-15700</v>
+        <v>-14700</v>
       </c>
       <c r="G35" s="3">
-        <v>-15800</v>
+        <v>-14700</v>
       </c>
       <c r="H35" s="3">
-        <v>-27600</v>
+        <v>-25700</v>
       </c>
       <c r="I35" s="3">
-        <v>-8400</v>
+        <v>-7900</v>
       </c>
       <c r="J35" s="3">
-        <v>-23300</v>
+        <v>-21700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1882,19 +1882,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>308300</v>
+        <v>287900</v>
       </c>
       <c r="E41" s="3">
-        <v>323400</v>
+        <v>302100</v>
       </c>
       <c r="F41" s="3">
-        <v>340400</v>
+        <v>318000</v>
       </c>
       <c r="G41" s="3">
-        <v>119000</v>
+        <v>111200</v>
       </c>
       <c r="H41" s="3">
-        <v>24700</v>
+        <v>23100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1923,19 +1923,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E42" s="3">
         <v>600</v>
       </c>
       <c r="F42" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G42" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H42" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1973,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="H43" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -2046,19 +2046,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="E45" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="F45" s="3">
-        <v>8700</v>
+        <v>8100</v>
       </c>
       <c r="G45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -2087,19 +2087,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>318400</v>
+        <v>297400</v>
       </c>
       <c r="E46" s="3">
-        <v>333900</v>
+        <v>311900</v>
       </c>
       <c r="F46" s="3">
-        <v>350900</v>
+        <v>327800</v>
       </c>
       <c r="G46" s="3">
-        <v>128600</v>
+        <v>120200</v>
       </c>
       <c r="H46" s="3">
-        <v>34000</v>
+        <v>31800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2169,19 +2169,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24600</v>
+        <v>23000</v>
       </c>
       <c r="E48" s="3">
-        <v>25500</v>
+        <v>23800</v>
       </c>
       <c r="F48" s="3">
-        <v>22700</v>
+        <v>21200</v>
       </c>
       <c r="G48" s="3">
-        <v>18800</v>
+        <v>17500</v>
       </c>
       <c r="H48" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2333,19 +2333,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E52" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F52" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="G52" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="H52" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2415,19 +2415,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>346600</v>
+        <v>323700</v>
       </c>
       <c r="E54" s="3">
-        <v>361600</v>
+        <v>337700</v>
       </c>
       <c r="F54" s="3">
-        <v>376700</v>
+        <v>351900</v>
       </c>
       <c r="G54" s="3">
-        <v>152200</v>
+        <v>142200</v>
       </c>
       <c r="H54" s="3">
-        <v>53700</v>
+        <v>50200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2531,19 +2531,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="E58" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="F58" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="G58" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="H58" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2572,19 +2572,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="E59" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="F59" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="G59" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="H59" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2613,19 +2613,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21700</v>
+        <v>20200</v>
       </c>
       <c r="E60" s="3">
-        <v>20800</v>
+        <v>19400</v>
       </c>
       <c r="F60" s="3">
-        <v>19100</v>
+        <v>17800</v>
       </c>
       <c r="G60" s="3">
-        <v>14700</v>
+        <v>13800</v>
       </c>
       <c r="H60" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2654,19 +2654,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="E61" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="F61" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="G61" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="H61" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2695,13 +2695,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="E62" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="F62" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2859,19 +2859,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34900</v>
+        <v>32600</v>
       </c>
       <c r="E66" s="3">
-        <v>34500</v>
+        <v>32300</v>
       </c>
       <c r="F66" s="3">
-        <v>30500</v>
+        <v>28500</v>
       </c>
       <c r="G66" s="3">
-        <v>22900</v>
+        <v>21400</v>
       </c>
       <c r="H66" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>222100</v>
+        <v>207400</v>
       </c>
       <c r="H70" s="3">
-        <v>115600</v>
+        <v>108000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3081,19 +3081,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-140300</v>
+        <v>-131000</v>
       </c>
       <c r="E72" s="3">
-        <v>-119900</v>
+        <v>-112000</v>
       </c>
       <c r="F72" s="3">
-        <v>-104700</v>
+        <v>-97800</v>
       </c>
       <c r="G72" s="3">
-        <v>-89000</v>
+        <v>-83100</v>
       </c>
       <c r="H72" s="3">
-        <v>-73200</v>
+        <v>-68400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3245,19 +3245,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>311700</v>
+        <v>291100</v>
       </c>
       <c r="E76" s="3">
-        <v>327000</v>
+        <v>305500</v>
       </c>
       <c r="F76" s="3">
-        <v>346200</v>
+        <v>323400</v>
       </c>
       <c r="G76" s="3">
-        <v>-92700</v>
+        <v>-86600</v>
       </c>
       <c r="H76" s="3">
-        <v>-74000</v>
+        <v>-69100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3373,25 +3373,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20400</v>
+        <v>-19100</v>
       </c>
       <c r="E81" s="3">
-        <v>-15200</v>
+        <v>-14200</v>
       </c>
       <c r="F81" s="3">
-        <v>-15700</v>
+        <v>-14700</v>
       </c>
       <c r="G81" s="3">
-        <v>-15800</v>
+        <v>-14700</v>
       </c>
       <c r="H81" s="3">
-        <v>-27600</v>
+        <v>-25700</v>
       </c>
       <c r="I81" s="3">
-        <v>-8400</v>
+        <v>-7900</v>
       </c>
       <c r="J81" s="3">
-        <v>-23300</v>
+        <v>-21700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3440,7 +3440,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3686,7 +3686,7 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-31300</v>
+        <v>-29200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3744,7 +3744,7 @@
         <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>-12500</v>
+        <v>-11700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3867,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-14800</v>
+        <v>-13800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -4089,7 +4089,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>119300</v>
+        <v>111500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -4130,7 +4130,7 @@
         <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -4171,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>69800</v>
+        <v>65200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
   <si>
     <t>GRCL</t>
   </si>
@@ -668,7 +668,9 @@
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -703,10 +705,10 @@
         <v>44104</v>
       </c>
       <c r="I7" s="2">
-        <v>43830</v>
+        <v>44012</v>
       </c>
       <c r="J7" s="2">
-        <v>43738</v>
+        <v>43921</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -869,10 +871,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="E12" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="F12" s="3">
         <v>9600</v>
@@ -881,13 +883,13 @@
         <v>8900</v>
       </c>
       <c r="H12" s="3">
-        <v>15900</v>
+        <v>21600</v>
       </c>
       <c r="I12" s="3">
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="J12" s="3">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -1047,25 +1049,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="E17" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="F17" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="G17" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="H17" s="3">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="I17" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="J17" s="3">
-        <v>14800</v>
+        <v>4800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1240,10 +1242,10 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1269,25 +1271,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19100</v>
+        <v>-18900</v>
       </c>
       <c r="E23" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="F23" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="G23" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="H23" s="3">
-        <v>-18900</v>
+        <v>-7400</v>
       </c>
       <c r="I23" s="3">
-        <v>-6300</v>
+        <v>-6700</v>
       </c>
       <c r="J23" s="3">
-        <v>-14100</v>
+        <v>-4700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1392,25 +1394,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19100</v>
+        <v>-18900</v>
       </c>
       <c r="E26" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="F26" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="G26" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="H26" s="3">
-        <v>-18900</v>
+        <v>-7400</v>
       </c>
       <c r="I26" s="3">
-        <v>-6300</v>
+        <v>-6700</v>
       </c>
       <c r="J26" s="3">
-        <v>-14100</v>
+        <v>-4700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1433,25 +1435,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-19100</v>
+        <v>-18900</v>
       </c>
       <c r="E27" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="F27" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="G27" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="H27" s="3">
-        <v>-25700</v>
+        <v>-10100</v>
       </c>
       <c r="I27" s="3">
-        <v>-7900</v>
+        <v>-9200</v>
       </c>
       <c r="J27" s="3">
-        <v>-21700</v>
+        <v>-6200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1679,25 +1681,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-19100</v>
+        <v>-18900</v>
       </c>
       <c r="E33" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="F33" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="G33" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="H33" s="3">
-        <v>-25700</v>
+        <v>-10100</v>
       </c>
       <c r="I33" s="3">
-        <v>-7900</v>
+        <v>-9200</v>
       </c>
       <c r="J33" s="3">
-        <v>-21700</v>
+        <v>-6200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1761,25 +1763,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-19100</v>
+        <v>-18900</v>
       </c>
       <c r="E35" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="F35" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="G35" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="H35" s="3">
-        <v>-25700</v>
+        <v>-10100</v>
       </c>
       <c r="I35" s="3">
-        <v>-7900</v>
+        <v>-9200</v>
       </c>
       <c r="J35" s="3">
-        <v>-21700</v>
+        <v>-6200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1822,10 +1824,10 @@
         <v>44104</v>
       </c>
       <c r="I38" s="2">
-        <v>43830</v>
+        <v>44012</v>
       </c>
       <c r="J38" s="2">
-        <v>43738</v>
+        <v>43921</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1882,19 +1884,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>287900</v>
+        <v>285300</v>
       </c>
       <c r="E41" s="3">
-        <v>302100</v>
+        <v>299300</v>
       </c>
       <c r="F41" s="3">
-        <v>318000</v>
+        <v>315100</v>
       </c>
       <c r="G41" s="3">
-        <v>111200</v>
+        <v>110200</v>
       </c>
       <c r="H41" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1926,16 +1928,16 @@
         <v>500</v>
       </c>
       <c r="E42" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F42" s="3">
         <v>1700</v>
       </c>
       <c r="G42" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H42" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1973,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H43" s="3">
         <v>3900</v>
@@ -2046,13 +2048,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="E45" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="F45" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="G45" s="3">
         <v>1200</v>
@@ -2087,19 +2089,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>297400</v>
+        <v>294800</v>
       </c>
       <c r="E46" s="3">
-        <v>311900</v>
+        <v>309100</v>
       </c>
       <c r="F46" s="3">
-        <v>327800</v>
+        <v>324800</v>
       </c>
       <c r="G46" s="3">
-        <v>120200</v>
+        <v>119100</v>
       </c>
       <c r="H46" s="3">
-        <v>31800</v>
+        <v>31500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2169,19 +2171,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="E48" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="F48" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="G48" s="3">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="H48" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2333,7 +2335,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
         <v>2000</v>
@@ -2342,7 +2344,7 @@
         <v>2900</v>
       </c>
       <c r="G52" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H52" s="3">
         <v>1900</v>
@@ -2415,19 +2417,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>323700</v>
+        <v>320800</v>
       </c>
       <c r="E54" s="3">
-        <v>337700</v>
+        <v>334700</v>
       </c>
       <c r="F54" s="3">
-        <v>351900</v>
+        <v>348700</v>
       </c>
       <c r="G54" s="3">
-        <v>142200</v>
+        <v>140900</v>
       </c>
       <c r="H54" s="3">
-        <v>50200</v>
+        <v>49700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2531,16 +2533,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="E58" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="F58" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="G58" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="H58" s="3">
         <v>3000</v>
@@ -2572,19 +2574,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="E59" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="F59" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="G59" s="3">
         <v>6200</v>
       </c>
       <c r="H59" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2613,16 +2615,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="E60" s="3">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="F60" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="G60" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="H60" s="3">
         <v>4700</v>
@@ -2654,19 +2656,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="E61" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="F61" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G61" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H61" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2695,7 +2697,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E62" s="3">
         <v>4600</v>
@@ -2859,19 +2861,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32600</v>
+        <v>32300</v>
       </c>
       <c r="E66" s="3">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="F66" s="3">
-        <v>28500</v>
+        <v>28300</v>
       </c>
       <c r="G66" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="H66" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -3008,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>207400</v>
+        <v>205500</v>
       </c>
       <c r="H70" s="3">
-        <v>108000</v>
+        <v>107000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3081,19 +3083,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-131000</v>
+        <v>-129800</v>
       </c>
       <c r="E72" s="3">
-        <v>-112000</v>
+        <v>-111000</v>
       </c>
       <c r="F72" s="3">
-        <v>-97800</v>
+        <v>-96900</v>
       </c>
       <c r="G72" s="3">
-        <v>-83100</v>
+        <v>-82400</v>
       </c>
       <c r="H72" s="3">
-        <v>-68400</v>
+        <v>-67800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3245,19 +3247,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>291100</v>
+        <v>288500</v>
       </c>
       <c r="E76" s="3">
-        <v>305500</v>
+        <v>302700</v>
       </c>
       <c r="F76" s="3">
-        <v>323400</v>
+        <v>320500</v>
       </c>
       <c r="G76" s="3">
-        <v>-86600</v>
+        <v>-85800</v>
       </c>
       <c r="H76" s="3">
-        <v>-69100</v>
+        <v>-68500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3347,10 +3349,10 @@
         <v>44104</v>
       </c>
       <c r="I80" s="2">
-        <v>43830</v>
+        <v>44012</v>
       </c>
       <c r="J80" s="2">
-        <v>43738</v>
+        <v>43921</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -3373,25 +3375,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-19100</v>
+        <v>-18900</v>
       </c>
       <c r="E81" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="F81" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="G81" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="H81" s="3">
-        <v>-25700</v>
+        <v>-10100</v>
       </c>
       <c r="I81" s="3">
-        <v>-7900</v>
+        <v>-9200</v>
       </c>
       <c r="J81" s="3">
-        <v>-21700</v>
+        <v>-6200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3686,7 +3688,7 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-29200</v>
+        <v>-28900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3744,7 +3746,7 @@
         <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3867,7 +3869,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-13800</v>
+        <v>-13700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -4089,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>111500</v>
+        <v>110500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -4130,7 +4132,7 @@
         <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -4171,7 +4173,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>65200</v>
+        <v>64600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="92">
   <si>
     <t>GRCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,79 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -736,11 +747,11 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,14 +762,14 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -766,8 +777,17 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +827,17 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +877,17 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,49 +903,61 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12900</v>
+        <v>16300</v>
       </c>
       <c r="E12" s="3">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="F12" s="3">
-        <v>9600</v>
+        <v>15000</v>
       </c>
       <c r="G12" s="3">
-        <v>8900</v>
+        <v>12300</v>
       </c>
       <c r="H12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K12" s="3">
         <v>21600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>4000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +997,17 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1047,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1097,17 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,49 +1120,61 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19200</v>
+        <v>20300</v>
       </c>
       <c r="E17" s="3">
-        <v>14000</v>
+        <v>22200</v>
       </c>
       <c r="F17" s="3">
-        <v>14200</v>
+        <v>19400</v>
       </c>
       <c r="G17" s="3">
-        <v>12500</v>
+        <v>18300</v>
       </c>
       <c r="H17" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>4800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,11 +1184,11 @@
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="F18" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-18200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1214,17 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1240,11 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,11 +1254,11 @@
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1284,17 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1224,8 +1334,17 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,25 +1358,25 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1265,49 +1384,67 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18900</v>
+        <v>-20400</v>
       </c>
       <c r="E23" s="3">
-        <v>-14100</v>
+        <v>-22100</v>
       </c>
       <c r="F23" s="3">
-        <v>-14300</v>
+        <v>-17900</v>
       </c>
       <c r="G23" s="3">
-        <v>-12200</v>
+        <v>-18000</v>
       </c>
       <c r="H23" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-6700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1484,17 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,90 +1534,117 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18900</v>
+        <v>-20400</v>
       </c>
       <c r="E26" s="3">
-        <v>-14100</v>
+        <v>-22100</v>
       </c>
       <c r="F26" s="3">
-        <v>-14300</v>
+        <v>-17900</v>
       </c>
       <c r="G26" s="3">
-        <v>-12200</v>
+        <v>-18000</v>
       </c>
       <c r="H26" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-6700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18900</v>
+        <v>-20400</v>
       </c>
       <c r="E27" s="3">
-        <v>-14100</v>
+        <v>-22100</v>
       </c>
       <c r="F27" s="3">
-        <v>-14600</v>
+        <v>-17900</v>
       </c>
       <c r="G27" s="3">
-        <v>-14600</v>
+        <v>-18000</v>
       </c>
       <c r="H27" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1684,17 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1734,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1784,17 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1834,17 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,11 +1854,11 @@
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1675,49 +1884,67 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18900</v>
+        <v>-20400</v>
       </c>
       <c r="E33" s="3">
-        <v>-14100</v>
+        <v>-22100</v>
       </c>
       <c r="F33" s="3">
-        <v>-14600</v>
+        <v>-17900</v>
       </c>
       <c r="G33" s="3">
-        <v>-14600</v>
+        <v>-18000</v>
       </c>
       <c r="H33" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,95 +1984,122 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18900</v>
+        <v>-20400</v>
       </c>
       <c r="E35" s="3">
-        <v>-14100</v>
+        <v>-22100</v>
       </c>
       <c r="F35" s="3">
-        <v>-14600</v>
+        <v>-17900</v>
       </c>
       <c r="G35" s="3">
-        <v>-14600</v>
+        <v>-18000</v>
       </c>
       <c r="H35" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2115,11 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,35 +2135,38 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>213700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>225700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>254600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>272000</v>
+      </c>
+      <c r="H41" s="3">
         <v>285300</v>
       </c>
-      <c r="E41" s="3">
-        <v>299300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>315100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>110200</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>300400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>105000</v>
+      </c>
+      <c r="K41" s="3">
         <v>22900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,35 +2179,44 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G42" s="3">
         <v>500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="H42" s="3">
         <v>500</v>
       </c>
-      <c r="F42" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K42" s="3">
         <v>3600</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,8 +2229,17 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1971,24 +2249,24 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="F43" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2279,17 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,34 +2329,43 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8900</v>
+        <v>4500</v>
       </c>
       <c r="E45" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="F45" s="3">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="G45" s="3">
-        <v>1200</v>
+        <v>8500</v>
       </c>
       <c r="H45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>1100</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2083,35 +2379,44 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>294800</v>
+        <v>242100</v>
       </c>
       <c r="E46" s="3">
-        <v>309100</v>
+        <v>245200</v>
       </c>
       <c r="F46" s="3">
-        <v>324800</v>
+        <v>262400</v>
       </c>
       <c r="G46" s="3">
-        <v>119100</v>
+        <v>281000</v>
       </c>
       <c r="H46" s="3">
+        <v>294600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>309600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>113500</v>
+      </c>
+      <c r="K46" s="3">
         <v>31500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2429,17 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,35 +2479,44 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22800</v>
+        <v>18200</v>
       </c>
       <c r="E48" s="3">
-        <v>23600</v>
+        <v>20100</v>
       </c>
       <c r="F48" s="3">
-        <v>21000</v>
+        <v>21400</v>
       </c>
       <c r="G48" s="3">
-        <v>17400</v>
+        <v>21700</v>
       </c>
       <c r="H48" s="3">
+        <v>22500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K48" s="3">
         <v>16400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,8 +2529,17 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2579,17 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2629,17 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,34 +2679,43 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3200</v>
+        <v>4100</v>
       </c>
       <c r="E52" s="3">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="F52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G52" s="3">
-        <v>4400</v>
+        <v>3100</v>
       </c>
       <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1900</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2729,17 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2779,44 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>320800</v>
+        <v>264400</v>
       </c>
       <c r="E54" s="3">
-        <v>334700</v>
+        <v>269100</v>
       </c>
       <c r="F54" s="3">
-        <v>348700</v>
+        <v>286800</v>
       </c>
       <c r="G54" s="3">
-        <v>140900</v>
+        <v>305800</v>
       </c>
       <c r="H54" s="3">
+        <v>319000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>332400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K54" s="3">
         <v>49700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2829,17 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2855,11 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,8 +2875,11 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2527,35 +2919,44 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I58" s="3">
         <v>8500</v>
       </c>
-      <c r="E58" s="3">
-        <v>8500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,35 +2969,44 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11600</v>
+        <v>15600</v>
       </c>
       <c r="E59" s="3">
-        <v>10800</v>
+        <v>13100</v>
       </c>
       <c r="F59" s="3">
-        <v>8800</v>
+        <v>12100</v>
       </c>
       <c r="G59" s="3">
-        <v>6200</v>
+        <v>11000</v>
       </c>
       <c r="H59" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,35 +3019,44 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20000</v>
+        <v>30200</v>
       </c>
       <c r="E60" s="3">
-        <v>19300</v>
+        <v>26000</v>
       </c>
       <c r="F60" s="3">
-        <v>17700</v>
+        <v>21600</v>
       </c>
       <c r="G60" s="3">
-        <v>13600</v>
+        <v>19100</v>
       </c>
       <c r="H60" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,35 +3069,44 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8100</v>
+        <v>7400</v>
       </c>
       <c r="E61" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="F61" s="3">
         <v>7600</v>
       </c>
       <c r="G61" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="H61" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I61" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K61" s="3">
         <v>6500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2691,40 +3119,49 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4100</v>
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
-        <v>4600</v>
+        <v>2700</v>
       </c>
       <c r="F62" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>3200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2732,8 +3169,17 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3219,17 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3269,17 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3319,44 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32300</v>
+        <v>39700</v>
       </c>
       <c r="E66" s="3">
-        <v>32000</v>
+        <v>36300</v>
       </c>
       <c r="F66" s="3">
-        <v>28300</v>
+        <v>32400</v>
       </c>
       <c r="G66" s="3">
-        <v>21200</v>
+        <v>30800</v>
       </c>
       <c r="H66" s="3">
+        <v>30500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>27000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K66" s="3">
         <v>11200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3369,17 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3395,11 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3439,17 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3489,17 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3010,20 +3513,20 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>205500</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>195900</v>
+      </c>
+      <c r="K70" s="3">
         <v>107000</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3036,8 +3539,17 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,35 +3589,44 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-129800</v>
+        <v>-184100</v>
       </c>
       <c r="E72" s="3">
-        <v>-111000</v>
+        <v>-163700</v>
       </c>
       <c r="F72" s="3">
-        <v>-96900</v>
+        <v>-141700</v>
       </c>
       <c r="G72" s="3">
-        <v>-82400</v>
+        <v>-123800</v>
       </c>
       <c r="H72" s="3">
+        <v>-105800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-92400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-67800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3639,17 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3689,17 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3739,17 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,35 +3789,44 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>224600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>232800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>254400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>275000</v>
+      </c>
+      <c r="H76" s="3">
         <v>288500</v>
       </c>
-      <c r="E76" s="3">
-        <v>302700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>320500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-85800</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>305500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-68500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3839,17 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,95 +3889,122 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18900</v>
+        <v>-20400</v>
       </c>
       <c r="E81" s="3">
-        <v>-14100</v>
+        <v>-22100</v>
       </c>
       <c r="F81" s="3">
-        <v>-14600</v>
+        <v>-17900</v>
       </c>
       <c r="G81" s="3">
-        <v>-14600</v>
+        <v>-18000</v>
       </c>
       <c r="H81" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,31 +4020,34 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3468,8 +4064,17 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +4114,17 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +4164,17 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4214,17 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4264,17 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,31 +4314,40 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3714,8 +4364,17 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,31 +4390,34 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3772,8 +4434,17 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4484,17 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,31 +4534,40 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3895,8 +4584,17 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4610,11 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4654,17 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4704,17 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4754,17 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,31 +4804,40 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>110500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4117,31 +4854,40 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4158,31 +4904,40 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>64600</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -4197,6 +4952,15 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="92">
   <si>
     <t>GRCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +737,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,15 +751,15 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -771,8 +775,8 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -786,8 +790,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,44 +919,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>16300</v>
+        <v>19200</v>
       </c>
       <c r="E12" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="F12" s="3">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="G12" s="3">
-        <v>12300</v>
+        <v>15500</v>
       </c>
       <c r="H12" s="3">
-        <v>9100</v>
+        <v>12700</v>
       </c>
       <c r="I12" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="J12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K12" s="3">
         <v>8400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,44 +1149,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20300</v>
+        <v>24400</v>
       </c>
       <c r="E17" s="3">
-        <v>22200</v>
+        <v>20900</v>
       </c>
       <c r="F17" s="3">
-        <v>19400</v>
+        <v>22900</v>
       </c>
       <c r="G17" s="3">
-        <v>18300</v>
+        <v>20000</v>
       </c>
       <c r="H17" s="3">
-        <v>13300</v>
+        <v>18900</v>
       </c>
       <c r="I17" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="J17" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K17" s="3">
         <v>11900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>7000</v>
       </c>
       <c r="L17" s="3">
         <v>7000</v>
       </c>
       <c r="M17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N17" s="3">
         <v>4800</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,8 +1200,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,14 +1214,14 @@
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
-        <v>-19400</v>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G18" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-20000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-18800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1276,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,15 +1288,15 @@
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
-        <v>1700</v>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,8 +1327,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,13 +1380,16 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1367,7 +1407,7 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1376,10 +1416,10 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1393,44 +1433,47 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20400</v>
+        <v>-24700</v>
       </c>
       <c r="E23" s="3">
-        <v>-22100</v>
+        <v>-21000</v>
       </c>
       <c r="F23" s="3">
-        <v>-17900</v>
+        <v>-22800</v>
       </c>
       <c r="G23" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="H23" s="3">
-        <v>-13400</v>
+        <v>-18600</v>
       </c>
       <c r="I23" s="3">
-        <v>-13600</v>
+        <v>-13800</v>
       </c>
       <c r="J23" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,44 +1592,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20400</v>
+        <v>-24700</v>
       </c>
       <c r="E26" s="3">
-        <v>-22100</v>
+        <v>-21000</v>
       </c>
       <c r="F26" s="3">
-        <v>-17900</v>
+        <v>-22800</v>
       </c>
       <c r="G26" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="H26" s="3">
-        <v>-13400</v>
+        <v>-18600</v>
       </c>
       <c r="I26" s="3">
-        <v>-13600</v>
+        <v>-13800</v>
       </c>
       <c r="J26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-11600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,44 +1645,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20400</v>
+        <v>-24700</v>
       </c>
       <c r="E27" s="3">
-        <v>-22100</v>
+        <v>-21000</v>
       </c>
       <c r="F27" s="3">
-        <v>-17900</v>
+        <v>-22800</v>
       </c>
       <c r="G27" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="H27" s="3">
-        <v>-13400</v>
+        <v>-18600</v>
       </c>
       <c r="I27" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13900</v>
       </c>
-      <c r="J27" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1910,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,15 +1924,15 @@
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1700</v>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,44 +1963,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20400</v>
+        <v>-24700</v>
       </c>
       <c r="E33" s="3">
-        <v>-22100</v>
+        <v>-21000</v>
       </c>
       <c r="F33" s="3">
-        <v>-17900</v>
+        <v>-22800</v>
       </c>
       <c r="G33" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="H33" s="3">
-        <v>-13400</v>
+        <v>-18600</v>
       </c>
       <c r="I33" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13900</v>
       </c>
-      <c r="J33" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,44 +2069,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20400</v>
+        <v>-24700</v>
       </c>
       <c r="E35" s="3">
-        <v>-22100</v>
+        <v>-21000</v>
       </c>
       <c r="F35" s="3">
-        <v>-17900</v>
+        <v>-22800</v>
       </c>
       <c r="G35" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="H35" s="3">
-        <v>-13400</v>
+        <v>-18600</v>
       </c>
       <c r="I35" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13900</v>
       </c>
-      <c r="J35" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,38 +2224,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>213700</v>
+        <v>205600</v>
       </c>
       <c r="E41" s="3">
-        <v>225700</v>
+        <v>220500</v>
       </c>
       <c r="F41" s="3">
-        <v>254600</v>
+        <v>232800</v>
       </c>
       <c r="G41" s="3">
-        <v>272000</v>
+        <v>262700</v>
       </c>
       <c r="H41" s="3">
-        <v>285300</v>
+        <v>280600</v>
       </c>
       <c r="I41" s="3">
-        <v>300400</v>
+        <v>294400</v>
       </c>
       <c r="J41" s="3">
+        <v>309900</v>
+      </c>
+      <c r="K41" s="3">
         <v>105000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,38 +2275,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24000</v>
+        <v>28500</v>
       </c>
       <c r="E42" s="3">
-        <v>10200</v>
+        <v>24700</v>
       </c>
       <c r="F42" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G42" s="3">
         <v>1100</v>
-      </c>
-      <c r="G42" s="3">
-        <v>500</v>
       </c>
       <c r="H42" s="3">
         <v>500</v>
       </c>
       <c r="I42" s="3">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="J42" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K42" s="3">
         <v>3100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3600</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,8 +2328,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,11 +2342,11 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -2261,15 +2354,15 @@
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>4300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,37 +2434,40 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4500</v>
+        <v>5800</v>
       </c>
       <c r="E45" s="3">
-        <v>9300</v>
+        <v>4600</v>
       </c>
       <c r="F45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G45" s="3">
         <v>1100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>8500</v>
       </c>
       <c r="H45" s="3">
         <v>8800</v>
       </c>
       <c r="I45" s="3">
-        <v>7600</v>
+        <v>9000</v>
       </c>
       <c r="J45" s="3">
-        <v>1100</v>
+        <v>7900</v>
       </c>
       <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>1100</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2388,38 +2487,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>242100</v>
+        <v>239800</v>
       </c>
       <c r="E46" s="3">
-        <v>245200</v>
+        <v>249800</v>
       </c>
       <c r="F46" s="3">
-        <v>262400</v>
+        <v>253000</v>
       </c>
       <c r="G46" s="3">
-        <v>281000</v>
+        <v>270700</v>
       </c>
       <c r="H46" s="3">
-        <v>294600</v>
+        <v>289900</v>
       </c>
       <c r="I46" s="3">
-        <v>309600</v>
+        <v>304000</v>
       </c>
       <c r="J46" s="3">
+        <v>319500</v>
+      </c>
+      <c r="K46" s="3">
         <v>113500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,38 +2593,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18200</v>
+        <v>21500</v>
       </c>
       <c r="E48" s="3">
-        <v>20100</v>
+        <v>18700</v>
       </c>
       <c r="F48" s="3">
-        <v>21400</v>
+        <v>20700</v>
       </c>
       <c r="G48" s="3">
-        <v>21700</v>
+        <v>22000</v>
       </c>
       <c r="H48" s="3">
-        <v>22500</v>
+        <v>22400</v>
       </c>
       <c r="I48" s="3">
-        <v>20000</v>
+        <v>23200</v>
       </c>
       <c r="J48" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K48" s="3">
         <v>16600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,38 +2805,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4100</v>
+        <v>2700</v>
       </c>
       <c r="E52" s="3">
-        <v>3900</v>
+        <v>4200</v>
       </c>
       <c r="F52" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G52" s="3">
         <v>3100</v>
       </c>
       <c r="H52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
-        <v>2800</v>
-      </c>
       <c r="J52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K52" s="3">
         <v>4200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,38 +2911,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>264400</v>
+        <v>264000</v>
       </c>
       <c r="E54" s="3">
-        <v>269100</v>
+        <v>272800</v>
       </c>
       <c r="F54" s="3">
-        <v>286800</v>
+        <v>277700</v>
       </c>
       <c r="G54" s="3">
-        <v>305800</v>
+        <v>295900</v>
       </c>
       <c r="H54" s="3">
-        <v>319000</v>
+        <v>315500</v>
       </c>
       <c r="I54" s="3">
-        <v>332400</v>
+        <v>329100</v>
       </c>
       <c r="J54" s="3">
+        <v>343000</v>
+      </c>
+      <c r="K54" s="3">
         <v>134300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,8 +3008,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2928,38 +3059,41 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14600</v>
+        <v>18500</v>
       </c>
       <c r="E58" s="3">
-        <v>12900</v>
+        <v>15100</v>
       </c>
       <c r="F58" s="3">
-        <v>9500</v>
+        <v>13400</v>
       </c>
       <c r="G58" s="3">
-        <v>8100</v>
+        <v>9800</v>
       </c>
       <c r="H58" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="I58" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="J58" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,38 +3112,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15600</v>
+        <v>16900</v>
       </c>
       <c r="E59" s="3">
-        <v>13100</v>
+        <v>16100</v>
       </c>
       <c r="F59" s="3">
-        <v>12100</v>
+        <v>13500</v>
       </c>
       <c r="G59" s="3">
-        <v>11000</v>
+        <v>12400</v>
       </c>
       <c r="H59" s="3">
-        <v>10300</v>
+        <v>11400</v>
       </c>
       <c r="I59" s="3">
-        <v>8400</v>
+        <v>10600</v>
       </c>
       <c r="J59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,38 +3165,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30200</v>
+        <v>35400</v>
       </c>
       <c r="E60" s="3">
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="F60" s="3">
-        <v>21600</v>
+        <v>26900</v>
       </c>
       <c r="G60" s="3">
-        <v>19100</v>
+        <v>22300</v>
       </c>
       <c r="H60" s="3">
-        <v>18400</v>
+        <v>19700</v>
       </c>
       <c r="I60" s="3">
-        <v>16800</v>
+        <v>18900</v>
       </c>
       <c r="J60" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K60" s="3">
         <v>13000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,38 +3218,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="E61" s="3">
         <v>7600</v>
       </c>
       <c r="F61" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="G61" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="H61" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="I61" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K61" s="3">
         <v>7200</v>
       </c>
-      <c r="J61" s="3">
-        <v>7200</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3128,31 +3271,34 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="3">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="F62" s="3">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="G62" s="3">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="H62" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="I62" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>4500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -3163,8 +3309,8 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,38 +3483,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39700</v>
+        <v>44700</v>
       </c>
       <c r="E66" s="3">
-        <v>36300</v>
+        <v>41000</v>
       </c>
       <c r="F66" s="3">
-        <v>32400</v>
+        <v>37400</v>
       </c>
       <c r="G66" s="3">
-        <v>30800</v>
+        <v>33400</v>
       </c>
       <c r="H66" s="3">
-        <v>30500</v>
+        <v>31800</v>
       </c>
       <c r="I66" s="3">
-        <v>27000</v>
+        <v>31400</v>
       </c>
       <c r="J66" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K66" s="3">
         <v>20200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3522,14 +3690,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>195900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>107000</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,38 +3769,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-184100</v>
+        <v>-214700</v>
       </c>
       <c r="E72" s="3">
-        <v>-163700</v>
+        <v>-190000</v>
       </c>
       <c r="F72" s="3">
-        <v>-141700</v>
+        <v>-168900</v>
       </c>
       <c r="G72" s="3">
-        <v>-123800</v>
+        <v>-146200</v>
       </c>
       <c r="H72" s="3">
-        <v>-105800</v>
+        <v>-127700</v>
       </c>
       <c r="I72" s="3">
-        <v>-92400</v>
+        <v>-109100</v>
       </c>
       <c r="J72" s="3">
+        <v>-95300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-78500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-67800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,38 +3981,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>224600</v>
+        <v>219300</v>
       </c>
       <c r="E76" s="3">
-        <v>232800</v>
+        <v>231800</v>
       </c>
       <c r="F76" s="3">
-        <v>254400</v>
+        <v>240200</v>
       </c>
       <c r="G76" s="3">
-        <v>275000</v>
+        <v>262400</v>
       </c>
       <c r="H76" s="3">
-        <v>288500</v>
+        <v>283700</v>
       </c>
       <c r="I76" s="3">
-        <v>305500</v>
+        <v>297700</v>
       </c>
       <c r="J76" s="3">
+        <v>315200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-81800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-68500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,44 +4145,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20400</v>
+        <v>-24700</v>
       </c>
       <c r="E81" s="3">
-        <v>-22100</v>
+        <v>-21000</v>
       </c>
       <c r="F81" s="3">
-        <v>-17900</v>
+        <v>-22800</v>
       </c>
       <c r="G81" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="H81" s="3">
-        <v>-13400</v>
+        <v>-18600</v>
       </c>
       <c r="I81" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13900</v>
       </c>
-      <c r="J81" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,34 +4221,35 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+        <v>4900</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,34 +4537,37 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+        <v>-29400</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,34 +4613,35 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+        <v>-3500</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,34 +4770,37 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+        <v>-27700</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,34 +5056,37 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4863,34 +5109,37 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4913,34 +5162,37 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+        <v>-42200</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="92">
   <si>
     <t>GRCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,29 +740,32 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,8 +781,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -793,8 +796,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,47 +932,48 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>19200</v>
+        <v>16100</v>
       </c>
       <c r="E12" s="3">
-        <v>16800</v>
+        <v>19000</v>
       </c>
       <c r="F12" s="3">
-        <v>17500</v>
+        <v>16600</v>
       </c>
       <c r="G12" s="3">
-        <v>15500</v>
+        <v>17300</v>
       </c>
       <c r="H12" s="3">
-        <v>12700</v>
+        <v>15300</v>
       </c>
       <c r="I12" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K12" s="3">
         <v>9400</v>
       </c>
-      <c r="J12" s="3">
-        <v>9400</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1042,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,47 +1175,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24400</v>
+        <v>21200</v>
       </c>
       <c r="E17" s="3">
-        <v>20900</v>
+        <v>24100</v>
       </c>
       <c r="F17" s="3">
-        <v>22900</v>
+        <v>20700</v>
       </c>
       <c r="G17" s="3">
-        <v>20000</v>
+        <v>22700</v>
       </c>
       <c r="H17" s="3">
-        <v>18900</v>
+        <v>19800</v>
       </c>
       <c r="I17" s="3">
-        <v>13700</v>
+        <v>18700</v>
       </c>
       <c r="J17" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K17" s="3">
         <v>14000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>7000</v>
       </c>
       <c r="M17" s="3">
         <v>7000</v>
       </c>
       <c r="N17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O17" s="3">
         <v>4800</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,28 +1229,31 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>-24100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
-        <v>-20000</v>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-19800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-18600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,29 +1309,30 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,8 +1363,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1383,8 +1419,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1431,7 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1410,7 +1449,7 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1419,10 +1458,10 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1436,47 +1475,50 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24700</v>
+        <v>-18600</v>
       </c>
       <c r="E23" s="3">
-        <v>-21000</v>
+        <v>-24400</v>
       </c>
       <c r="F23" s="3">
-        <v>-22800</v>
+        <v>-20800</v>
       </c>
       <c r="G23" s="3">
-        <v>-18500</v>
+        <v>-22500</v>
       </c>
       <c r="H23" s="3">
-        <v>-18600</v>
+        <v>-18300</v>
       </c>
       <c r="I23" s="3">
-        <v>-13800</v>
+        <v>-18400</v>
       </c>
       <c r="J23" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,31 +1531,34 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1542,8 +1587,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,47 +1643,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-24700</v>
+        <v>-18600</v>
       </c>
       <c r="E26" s="3">
-        <v>-21000</v>
+        <v>-24400</v>
       </c>
       <c r="F26" s="3">
-        <v>-22800</v>
+        <v>-20800</v>
       </c>
       <c r="G26" s="3">
-        <v>-18500</v>
+        <v>-22500</v>
       </c>
       <c r="H26" s="3">
-        <v>-18600</v>
+        <v>-18300</v>
       </c>
       <c r="I26" s="3">
-        <v>-13800</v>
+        <v>-18400</v>
       </c>
       <c r="J26" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,47 +1699,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-24700</v>
+        <v>-18600</v>
       </c>
       <c r="E27" s="3">
-        <v>-21000</v>
+        <v>-24400</v>
       </c>
       <c r="F27" s="3">
-        <v>-22800</v>
+        <v>-20800</v>
       </c>
       <c r="G27" s="3">
-        <v>-18500</v>
+        <v>-22500</v>
       </c>
       <c r="H27" s="3">
-        <v>-18600</v>
+        <v>-18300</v>
       </c>
       <c r="I27" s="3">
-        <v>-13800</v>
+        <v>-18400</v>
       </c>
       <c r="J27" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-14300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,29 +1979,32 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,47 +2035,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24700</v>
+        <v>-18600</v>
       </c>
       <c r="E33" s="3">
-        <v>-21000</v>
+        <v>-24400</v>
       </c>
       <c r="F33" s="3">
-        <v>-22800</v>
+        <v>-20800</v>
       </c>
       <c r="G33" s="3">
-        <v>-18500</v>
+        <v>-22500</v>
       </c>
       <c r="H33" s="3">
-        <v>-18600</v>
+        <v>-18300</v>
       </c>
       <c r="I33" s="3">
-        <v>-13800</v>
+        <v>-18400</v>
       </c>
       <c r="J33" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-14300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,47 +2147,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24700</v>
+        <v>-18600</v>
       </c>
       <c r="E35" s="3">
-        <v>-21000</v>
+        <v>-24400</v>
       </c>
       <c r="F35" s="3">
-        <v>-22800</v>
+        <v>-20800</v>
       </c>
       <c r="G35" s="3">
-        <v>-18500</v>
+        <v>-22500</v>
       </c>
       <c r="H35" s="3">
-        <v>-18600</v>
+        <v>-18300</v>
       </c>
       <c r="I35" s="3">
-        <v>-13800</v>
+        <v>-18400</v>
       </c>
       <c r="J35" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-14300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,52 +2203,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,41 +2310,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>205600</v>
+        <v>206800</v>
       </c>
       <c r="E41" s="3">
-        <v>220500</v>
+        <v>203500</v>
       </c>
       <c r="F41" s="3">
-        <v>232800</v>
+        <v>218200</v>
       </c>
       <c r="G41" s="3">
-        <v>262700</v>
+        <v>230400</v>
       </c>
       <c r="H41" s="3">
-        <v>280600</v>
+        <v>260000</v>
       </c>
       <c r="I41" s="3">
-        <v>294400</v>
+        <v>277800</v>
       </c>
       <c r="J41" s="3">
+        <v>291400</v>
+      </c>
+      <c r="K41" s="3">
         <v>309900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>105000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,41 +2364,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28500</v>
+        <v>500</v>
       </c>
       <c r="E42" s="3">
-        <v>24700</v>
+        <v>28200</v>
       </c>
       <c r="F42" s="3">
-        <v>10600</v>
+        <v>24500</v>
       </c>
       <c r="G42" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H42" s="3">
         <v>1100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>500</v>
       </c>
       <c r="I42" s="3">
         <v>500</v>
       </c>
       <c r="J42" s="3">
+        <v>500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3600</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,8 +2420,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,27 +2437,27 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>5800</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>4300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,8 +2476,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,40 +2532,43 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="E45" s="3">
-        <v>4600</v>
+        <v>5700</v>
       </c>
       <c r="F45" s="3">
-        <v>9600</v>
+        <v>4500</v>
       </c>
       <c r="G45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
-        <v>8800</v>
-      </c>
       <c r="I45" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="J45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K45" s="3">
         <v>7900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1100</v>
       </c>
       <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>1100</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2490,41 +2588,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>239800</v>
+        <v>212600</v>
       </c>
       <c r="E46" s="3">
-        <v>249800</v>
+        <v>237400</v>
       </c>
       <c r="F46" s="3">
-        <v>253000</v>
+        <v>247200</v>
       </c>
       <c r="G46" s="3">
-        <v>270700</v>
+        <v>250400</v>
       </c>
       <c r="H46" s="3">
-        <v>289900</v>
+        <v>268000</v>
       </c>
       <c r="I46" s="3">
-        <v>304000</v>
+        <v>286900</v>
       </c>
       <c r="J46" s="3">
+        <v>300900</v>
+      </c>
+      <c r="K46" s="3">
         <v>319500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>113500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2644,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,41 +2700,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21500</v>
+        <v>20600</v>
       </c>
       <c r="E48" s="3">
-        <v>18700</v>
+        <v>21300</v>
       </c>
       <c r="F48" s="3">
+        <v>18500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>20500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K48" s="3">
         <v>20700</v>
       </c>
-      <c r="G48" s="3">
-        <v>22000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>22400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>23200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>20700</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2756,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2812,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,41 +2924,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F52" s="3">
         <v>4200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2980,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,41 +3036,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>264000</v>
+        <v>235400</v>
       </c>
       <c r="E54" s="3">
-        <v>272800</v>
+        <v>261300</v>
       </c>
       <c r="F54" s="3">
-        <v>277700</v>
+        <v>270000</v>
       </c>
       <c r="G54" s="3">
-        <v>295900</v>
+        <v>274800</v>
       </c>
       <c r="H54" s="3">
-        <v>315500</v>
+        <v>292800</v>
       </c>
       <c r="I54" s="3">
-        <v>329100</v>
+        <v>312300</v>
       </c>
       <c r="J54" s="3">
+        <v>325800</v>
+      </c>
+      <c r="K54" s="3">
         <v>343000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>134300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,8 +3138,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3062,41 +3192,44 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18500</v>
+        <v>16600</v>
       </c>
       <c r="E58" s="3">
-        <v>15100</v>
+        <v>18300</v>
       </c>
       <c r="F58" s="3">
-        <v>13400</v>
+        <v>14900</v>
       </c>
       <c r="G58" s="3">
-        <v>9800</v>
+        <v>13200</v>
       </c>
       <c r="H58" s="3">
-        <v>8300</v>
+        <v>9700</v>
       </c>
       <c r="I58" s="3">
         <v>8300</v>
       </c>
       <c r="J58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K58" s="3">
         <v>8700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,41 +3248,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16900</v>
+        <v>14700</v>
       </c>
       <c r="E59" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="F59" s="3">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="G59" s="3">
-        <v>12400</v>
+        <v>13400</v>
       </c>
       <c r="H59" s="3">
-        <v>11400</v>
+        <v>12300</v>
       </c>
       <c r="I59" s="3">
-        <v>10600</v>
+        <v>11300</v>
       </c>
       <c r="J59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K59" s="3">
         <v>8600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,41 +3304,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35400</v>
+        <v>31400</v>
       </c>
       <c r="E60" s="3">
-        <v>31200</v>
+        <v>35000</v>
       </c>
       <c r="F60" s="3">
-        <v>26900</v>
+        <v>30900</v>
       </c>
       <c r="G60" s="3">
-        <v>22300</v>
+        <v>26600</v>
       </c>
       <c r="H60" s="3">
-        <v>19700</v>
+        <v>22100</v>
       </c>
       <c r="I60" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="J60" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K60" s="3">
         <v>17400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,41 +3360,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="E61" s="3">
-        <v>7600</v>
+        <v>6800</v>
       </c>
       <c r="F61" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="G61" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="H61" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="I61" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="J61" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K61" s="3">
         <v>7500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3274,35 +3416,38 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3">
-        <v>2800</v>
-      </c>
       <c r="G62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
-        <v>4100</v>
-      </c>
       <c r="I62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J62" s="3">
         <v>4500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3312,8 +3457,8 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3327,8 +3472,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,41 +3640,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44700</v>
+        <v>39900</v>
       </c>
       <c r="E66" s="3">
-        <v>41000</v>
+        <v>44300</v>
       </c>
       <c r="F66" s="3">
-        <v>37400</v>
+        <v>40600</v>
       </c>
       <c r="G66" s="3">
-        <v>33400</v>
+        <v>37100</v>
       </c>
       <c r="H66" s="3">
-        <v>31800</v>
+        <v>33100</v>
       </c>
       <c r="I66" s="3">
         <v>31400</v>
       </c>
       <c r="J66" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K66" s="3">
         <v>27800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3693,14 +3860,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>195900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>107000</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3719,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,41 +3942,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-214700</v>
+        <v>-231000</v>
       </c>
       <c r="E72" s="3">
-        <v>-190000</v>
+        <v>-212500</v>
       </c>
       <c r="F72" s="3">
-        <v>-168900</v>
+        <v>-188000</v>
       </c>
       <c r="G72" s="3">
-        <v>-146200</v>
+        <v>-167200</v>
       </c>
       <c r="H72" s="3">
-        <v>-127700</v>
+        <v>-144700</v>
       </c>
       <c r="I72" s="3">
-        <v>-109100</v>
+        <v>-126400</v>
       </c>
       <c r="J72" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-95300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-78500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-67800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,41 +4166,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>219300</v>
+        <v>195600</v>
       </c>
       <c r="E76" s="3">
-        <v>231800</v>
+        <v>217100</v>
       </c>
       <c r="F76" s="3">
-        <v>240200</v>
+        <v>229400</v>
       </c>
       <c r="G76" s="3">
-        <v>262400</v>
+        <v>237700</v>
       </c>
       <c r="H76" s="3">
-        <v>283700</v>
+        <v>259800</v>
       </c>
       <c r="I76" s="3">
-        <v>297700</v>
+        <v>280800</v>
       </c>
       <c r="J76" s="3">
+        <v>294700</v>
+      </c>
+      <c r="K76" s="3">
         <v>315200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-81800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-68500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4278,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,47 +4339,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24700</v>
+        <v>-18600</v>
       </c>
       <c r="E81" s="3">
-        <v>-21000</v>
+        <v>-24400</v>
       </c>
       <c r="F81" s="3">
-        <v>-22800</v>
+        <v>-20800</v>
       </c>
       <c r="G81" s="3">
-        <v>-18500</v>
+        <v>-22500</v>
       </c>
       <c r="H81" s="3">
-        <v>-18600</v>
+        <v>-18300</v>
       </c>
       <c r="I81" s="3">
-        <v>-13800</v>
+        <v>-18400</v>
       </c>
       <c r="J81" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-14300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,19 +4419,20 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4800</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -4248,11 +4446,11 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4473,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,19 +4753,22 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
-        <v>-29400</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-29100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -4566,11 +4782,11 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,37 +4833,38 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4667,8 +4887,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,19 +4999,22 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>-27700</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-27500</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -4799,11 +5028,11 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4826,8 +5055,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,19 +5301,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
+        <v>4500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -5085,11 +5330,11 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -5112,19 +5357,22 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
-        <v>10400</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
+        <v>10300</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -5138,11 +5386,11 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -5165,19 +5413,22 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>-42200</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-41800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -5191,11 +5442,11 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -5216,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="92">
   <si>
     <t>GRCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,35 +745,41 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -784,11 +792,11 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -799,8 +807,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,8 +869,14 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +931,14 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,53 +959,55 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>15600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>18400</v>
+      </c>
+      <c r="H12" s="3">
         <v>16100</v>
       </c>
-      <c r="E12" s="3">
-        <v>19000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>16600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>17300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>15300</v>
-      </c>
       <c r="I12" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K12" s="3">
         <v>12600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>9400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>21600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>6000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1017,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +1079,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1101,8 +1141,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1203,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,53 +1228,55 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21200</v>
+        <v>19400</v>
       </c>
       <c r="E17" s="3">
-        <v>24100</v>
+        <v>23000</v>
       </c>
       <c r="F17" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="G17" s="3">
-        <v>22700</v>
+        <v>23400</v>
       </c>
       <c r="H17" s="3">
-        <v>19800</v>
+        <v>20100</v>
       </c>
       <c r="I17" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K17" s="3">
         <v>18700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>11900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1232,35 +1286,41 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-18600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1348,14 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,35 +1376,37 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,8 +1434,14 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1422,22 +1496,28 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1452,22 +1532,22 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1478,53 +1558,59 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18600</v>
+        <v>-20200</v>
       </c>
       <c r="E23" s="3">
-        <v>-24400</v>
+        <v>-20900</v>
       </c>
       <c r="F23" s="3">
-        <v>-20800</v>
+        <v>-18000</v>
       </c>
       <c r="G23" s="3">
-        <v>-22500</v>
+        <v>-23700</v>
       </c>
       <c r="H23" s="3">
-        <v>-18300</v>
+        <v>-20200</v>
       </c>
       <c r="I23" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-18400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-4700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1534,19 +1620,25 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1560,11 +1652,11 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1590,8 +1682,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,53 +1744,59 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18600</v>
+        <v>-20200</v>
       </c>
       <c r="E26" s="3">
-        <v>-24400</v>
+        <v>-20900</v>
       </c>
       <c r="F26" s="3">
-        <v>-20800</v>
+        <v>-18000</v>
       </c>
       <c r="G26" s="3">
-        <v>-22500</v>
+        <v>-23700</v>
       </c>
       <c r="H26" s="3">
-        <v>-18300</v>
+        <v>-20200</v>
       </c>
       <c r="I26" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-18400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-13700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-11600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-4700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,53 +1806,59 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18600</v>
+        <v>-20200</v>
       </c>
       <c r="E27" s="3">
-        <v>-24400</v>
+        <v>-20900</v>
       </c>
       <c r="F27" s="3">
-        <v>-20800</v>
+        <v>-18000</v>
       </c>
       <c r="G27" s="3">
-        <v>-22500</v>
+        <v>-23700</v>
       </c>
       <c r="H27" s="3">
-        <v>-18300</v>
+        <v>-20200</v>
       </c>
       <c r="I27" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-18400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-13900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-6200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1868,14 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1930,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1992,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +2054,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,35 +2116,41 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,53 +2178,59 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18600</v>
+        <v>-20200</v>
       </c>
       <c r="E33" s="3">
-        <v>-24400</v>
+        <v>-20900</v>
       </c>
       <c r="F33" s="3">
-        <v>-20800</v>
+        <v>-18000</v>
       </c>
       <c r="G33" s="3">
-        <v>-22500</v>
+        <v>-23700</v>
       </c>
       <c r="H33" s="3">
-        <v>-18300</v>
+        <v>-20200</v>
       </c>
       <c r="I33" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-18400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-13900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-6200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,8 +2240,14 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,53 +2302,59 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18600</v>
+        <v>-20200</v>
       </c>
       <c r="E35" s="3">
-        <v>-24400</v>
+        <v>-20900</v>
       </c>
       <c r="F35" s="3">
-        <v>-20800</v>
+        <v>-18000</v>
       </c>
       <c r="G35" s="3">
-        <v>-22500</v>
+        <v>-23700</v>
       </c>
       <c r="H35" s="3">
-        <v>-18300</v>
+        <v>-20200</v>
       </c>
       <c r="I35" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-18400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-13900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-6200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,58 +2364,64 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2431,14 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2459,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,47 +2483,49 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>206800</v>
+        <v>163200</v>
       </c>
       <c r="E41" s="3">
-        <v>203500</v>
+        <v>175500</v>
       </c>
       <c r="F41" s="3">
-        <v>218200</v>
+        <v>200400</v>
       </c>
       <c r="G41" s="3">
-        <v>230400</v>
+        <v>197200</v>
       </c>
       <c r="H41" s="3">
-        <v>260000</v>
+        <v>211500</v>
       </c>
       <c r="I41" s="3">
+        <v>223400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>252000</v>
+      </c>
+      <c r="K41" s="3">
         <v>277800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>291400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>309900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>105000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>22900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,47 +2541,53 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3">
         <v>500</v>
       </c>
-      <c r="E42" s="3">
-        <v>28200</v>
-      </c>
       <c r="F42" s="3">
-        <v>24500</v>
+        <v>1000</v>
       </c>
       <c r="G42" s="3">
-        <v>10500</v>
+        <v>27300</v>
       </c>
       <c r="H42" s="3">
+        <v>23700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J42" s="3">
         <v>1100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3600</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2423,47 +2603,53 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>4900</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>3600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>5800</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>5600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
         <v>4300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2479,8 +2665,14 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2535,47 +2727,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5300</v>
+        <v>2700</v>
       </c>
       <c r="E45" s="3">
-        <v>5700</v>
+        <v>6500</v>
       </c>
       <c r="F45" s="3">
-        <v>4500</v>
+        <v>1100</v>
       </c>
       <c r="G45" s="3">
-        <v>9500</v>
+        <v>5600</v>
       </c>
       <c r="H45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>8900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,47 +2789,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>212600</v>
+        <v>171900</v>
       </c>
       <c r="E46" s="3">
-        <v>237400</v>
+        <v>182500</v>
       </c>
       <c r="F46" s="3">
-        <v>247200</v>
+        <v>206100</v>
       </c>
       <c r="G46" s="3">
-        <v>250400</v>
+        <v>230100</v>
       </c>
       <c r="H46" s="3">
-        <v>268000</v>
+        <v>239600</v>
       </c>
       <c r="I46" s="3">
+        <v>242700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K46" s="3">
         <v>286900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>319500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>113500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>31500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,8 +2851,14 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2703,47 +2913,53 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20600</v>
+        <v>16500</v>
       </c>
       <c r="E48" s="3">
-        <v>21300</v>
+        <v>18900</v>
       </c>
       <c r="F48" s="3">
-        <v>18500</v>
+        <v>19900</v>
       </c>
       <c r="G48" s="3">
-        <v>20500</v>
+        <v>20700</v>
       </c>
       <c r="H48" s="3">
-        <v>21800</v>
+        <v>18000</v>
       </c>
       <c r="I48" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K48" s="3">
         <v>22200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>23000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>20700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>16600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>16400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2759,8 +2975,14 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2815,8 +3037,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +3099,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,47 +3161,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N52" s="3">
         <v>4200</v>
       </c>
-      <c r="G52" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
-        <v>2900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3223,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,47 +3285,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>235400</v>
+        <v>189800</v>
       </c>
       <c r="E54" s="3">
-        <v>261300</v>
+        <v>203000</v>
       </c>
       <c r="F54" s="3">
-        <v>270000</v>
+        <v>228200</v>
       </c>
       <c r="G54" s="3">
-        <v>274800</v>
+        <v>253300</v>
       </c>
       <c r="H54" s="3">
-        <v>292800</v>
+        <v>261700</v>
       </c>
       <c r="I54" s="3">
+        <v>266400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>283800</v>
+      </c>
+      <c r="K54" s="3">
         <v>312300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>325800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>343000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>134300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>49700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3347,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3375,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,8 +3399,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3195,47 +3457,53 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16600</v>
+        <v>14600</v>
       </c>
       <c r="E58" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="F58" s="3">
-        <v>14900</v>
+        <v>16100</v>
       </c>
       <c r="G58" s="3">
-        <v>13200</v>
+        <v>17700</v>
       </c>
       <c r="H58" s="3">
-        <v>9700</v>
+        <v>14400</v>
       </c>
       <c r="I58" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K58" s="3">
         <v>8300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>8300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3251,47 +3519,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14700</v>
+        <v>12100</v>
       </c>
       <c r="E59" s="3">
-        <v>16700</v>
+        <v>12100</v>
       </c>
       <c r="F59" s="3">
-        <v>16000</v>
+        <v>14300</v>
       </c>
       <c r="G59" s="3">
-        <v>13400</v>
+        <v>16200</v>
       </c>
       <c r="H59" s="3">
-        <v>12300</v>
+        <v>15500</v>
       </c>
       <c r="I59" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K59" s="3">
         <v>11300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3307,47 +3581,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31400</v>
+        <v>26700</v>
       </c>
       <c r="E60" s="3">
-        <v>35000</v>
+        <v>29200</v>
       </c>
       <c r="F60" s="3">
-        <v>30900</v>
+        <v>30400</v>
       </c>
       <c r="G60" s="3">
-        <v>26600</v>
+        <v>34000</v>
       </c>
       <c r="H60" s="3">
-        <v>22100</v>
+        <v>29900</v>
       </c>
       <c r="I60" s="3">
+        <v>25800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K60" s="3">
         <v>19500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>18700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>17400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,47 +3643,53 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G61" s="3">
         <v>6600</v>
       </c>
-      <c r="E61" s="3">
-        <v>6800</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I61" s="3">
         <v>7500</v>
       </c>
-      <c r="G61" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K61" s="3">
         <v>7900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>7200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3419,52 +3705,58 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="E62" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="G62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K62" s="3">
         <v>4000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3475,8 +3767,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3829,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3891,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,47 +3953,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39900</v>
+        <v>33200</v>
       </c>
       <c r="E66" s="3">
-        <v>44300</v>
+        <v>36200</v>
       </c>
       <c r="F66" s="3">
-        <v>40600</v>
+        <v>38600</v>
       </c>
       <c r="G66" s="3">
-        <v>37100</v>
+        <v>42900</v>
       </c>
       <c r="H66" s="3">
-        <v>33100</v>
+        <v>39300</v>
       </c>
       <c r="I66" s="3">
+        <v>35900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K66" s="3">
         <v>31400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>31100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>27800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>20200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +4015,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +4043,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +4101,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +4163,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3863,17 +4199,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>195900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>107000</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3889,8 +4225,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,47 +4287,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-231000</v>
+        <v>-265100</v>
       </c>
       <c r="E72" s="3">
-        <v>-212500</v>
+        <v>-244800</v>
       </c>
       <c r="F72" s="3">
-        <v>-188000</v>
+        <v>-223900</v>
       </c>
       <c r="G72" s="3">
-        <v>-167200</v>
+        <v>-205900</v>
       </c>
       <c r="H72" s="3">
-        <v>-144700</v>
+        <v>-182200</v>
       </c>
       <c r="I72" s="3">
+        <v>-162100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-126400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-108000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-95300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-78500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-67800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4349,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4411,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4473,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,47 +4535,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>195600</v>
+        <v>156600</v>
       </c>
       <c r="E76" s="3">
-        <v>217100</v>
+        <v>166800</v>
       </c>
       <c r="F76" s="3">
-        <v>229400</v>
+        <v>189600</v>
       </c>
       <c r="G76" s="3">
-        <v>237700</v>
+        <v>210400</v>
       </c>
       <c r="H76" s="3">
-        <v>259800</v>
+        <v>222300</v>
       </c>
       <c r="I76" s="3">
+        <v>230400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>251800</v>
+      </c>
+      <c r="K76" s="3">
         <v>280800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>294700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>315200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-81800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-68500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4225,8 +4597,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,58 +4659,64 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,53 +4726,59 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18600</v>
+        <v>-20200</v>
       </c>
       <c r="E81" s="3">
-        <v>-24400</v>
+        <v>-20900</v>
       </c>
       <c r="F81" s="3">
-        <v>-20800</v>
+        <v>-18000</v>
       </c>
       <c r="G81" s="3">
-        <v>-22500</v>
+        <v>-23700</v>
       </c>
       <c r="H81" s="3">
-        <v>-18300</v>
+        <v>-20200</v>
       </c>
       <c r="I81" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-18400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-13900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-6200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4398,8 +4788,14 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,8 +4816,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4431,14 +4829,14 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>4800</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>4700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -4449,14 +4847,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4476,8 +4874,14 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4936,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4998,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +5060,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +5122,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,8 +5184,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4767,14 +5201,14 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
-        <v>-29100</v>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>-28200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -4785,14 +5219,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4812,8 +5246,14 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,16 +5274,18 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-23800</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4860,8 +5302,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4869,8 +5311,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4890,8 +5332,14 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5394,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,8 +5456,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5013,14 +5473,14 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>-27500</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>-26600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -5031,14 +5491,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -5058,8 +5518,14 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5546,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5604,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5666,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5728,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,8 +5790,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5315,14 +5807,14 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>4500</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>4400</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -5333,14 +5825,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -5360,8 +5852,14 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5371,14 +5869,14 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
-        <v>10300</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>9900</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -5389,14 +5887,14 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -5416,8 +5914,14 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5427,14 +5931,14 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
-        <v>-41800</v>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>-40500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -5445,14 +5949,14 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -5470,6 +5974,12 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCL_QTR_FIN.xlsx
@@ -970,7 +970,7 @@
         <v>14300</v>
       </c>
       <c r="E12" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="F12" s="3">
         <v>15600</v>
@@ -979,13 +979,13 @@
         <v>18400</v>
       </c>
       <c r="H12" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="I12" s="3">
         <v>16800</v>
       </c>
       <c r="J12" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="K12" s="3">
         <v>12600</v>
@@ -1236,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="E17" s="3">
         <v>23000</v>
@@ -1251,10 +1251,10 @@
         <v>20100</v>
       </c>
       <c r="I17" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="J17" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="K17" s="3">
         <v>18700</v>
@@ -1316,7 +1316,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="3">
-        <v>-19200</v>
+        <v>-19300</v>
       </c>
       <c r="K18" s="3">
         <v>-18600</v>
@@ -1570,7 +1570,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="E23" s="3">
         <v>-20900</v>
@@ -1585,10 +1585,10 @@
         <v>-20200</v>
       </c>
       <c r="I23" s="3">
-        <v>-21800</v>
+        <v>-21900</v>
       </c>
       <c r="J23" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="K23" s="3">
         <v>-18400</v>
@@ -1756,10 +1756,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="E26" s="3">
-        <v>-20900</v>
+        <v>-21000</v>
       </c>
       <c r="F26" s="3">
         <v>-18000</v>
@@ -1771,10 +1771,10 @@
         <v>-20200</v>
       </c>
       <c r="I26" s="3">
-        <v>-21800</v>
+        <v>-21900</v>
       </c>
       <c r="J26" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="K26" s="3">
         <v>-18400</v>
@@ -1818,10 +1818,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="E27" s="3">
-        <v>-20900</v>
+        <v>-21000</v>
       </c>
       <c r="F27" s="3">
         <v>-18000</v>
@@ -1833,10 +1833,10 @@
         <v>-20200</v>
       </c>
       <c r="I27" s="3">
-        <v>-21800</v>
+        <v>-21900</v>
       </c>
       <c r="J27" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="K27" s="3">
         <v>-18400</v>
@@ -2190,10 +2190,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="E33" s="3">
-        <v>-20900</v>
+        <v>-21000</v>
       </c>
       <c r="F33" s="3">
         <v>-18000</v>
@@ -2205,10 +2205,10 @@
         <v>-20200</v>
       </c>
       <c r="I33" s="3">
-        <v>-21800</v>
+        <v>-21900</v>
       </c>
       <c r="J33" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="K33" s="3">
         <v>-18400</v>
@@ -2314,10 +2314,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="E35" s="3">
-        <v>-20900</v>
+        <v>-21000</v>
       </c>
       <c r="F35" s="3">
         <v>-18000</v>
@@ -2329,10 +2329,10 @@
         <v>-20200</v>
       </c>
       <c r="I35" s="3">
-        <v>-21800</v>
+        <v>-21900</v>
       </c>
       <c r="J35" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="K35" s="3">
         <v>-18400</v>
@@ -2491,25 +2491,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>163200</v>
+        <v>163500</v>
       </c>
       <c r="E41" s="3">
-        <v>175500</v>
+        <v>175900</v>
       </c>
       <c r="F41" s="3">
-        <v>200400</v>
+        <v>200900</v>
       </c>
       <c r="G41" s="3">
-        <v>197200</v>
+        <v>197700</v>
       </c>
       <c r="H41" s="3">
-        <v>211500</v>
+        <v>212000</v>
       </c>
       <c r="I41" s="3">
-        <v>223400</v>
+        <v>223800</v>
       </c>
       <c r="J41" s="3">
-        <v>252000</v>
+        <v>252500</v>
       </c>
       <c r="K41" s="3">
         <v>277800</v>
@@ -2562,13 +2562,13 @@
         <v>1000</v>
       </c>
       <c r="G42" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="H42" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="I42" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="J42" s="3">
         <v>1100</v>
@@ -2742,7 +2742,7 @@
         <v>2700</v>
       </c>
       <c r="E45" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="F45" s="3">
         <v>1100</v>
@@ -2801,25 +2801,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>171900</v>
+        <v>172200</v>
       </c>
       <c r="E46" s="3">
-        <v>182500</v>
+        <v>182900</v>
       </c>
       <c r="F46" s="3">
-        <v>206100</v>
+        <v>206500</v>
       </c>
       <c r="G46" s="3">
-        <v>230100</v>
+        <v>230600</v>
       </c>
       <c r="H46" s="3">
-        <v>239600</v>
+        <v>240200</v>
       </c>
       <c r="I46" s="3">
-        <v>242700</v>
+        <v>243200</v>
       </c>
       <c r="J46" s="3">
-        <v>259700</v>
+        <v>260300</v>
       </c>
       <c r="K46" s="3">
         <v>286900</v>
@@ -2931,7 +2931,7 @@
         <v>18900</v>
       </c>
       <c r="F48" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="G48" s="3">
         <v>20700</v>
@@ -2943,7 +2943,7 @@
         <v>19900</v>
       </c>
       <c r="J48" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="K48" s="3">
         <v>22200</v>
@@ -3297,25 +3297,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189800</v>
+        <v>190300</v>
       </c>
       <c r="E54" s="3">
-        <v>203000</v>
+        <v>203500</v>
       </c>
       <c r="F54" s="3">
-        <v>228200</v>
+        <v>228700</v>
       </c>
       <c r="G54" s="3">
-        <v>253300</v>
+        <v>253800</v>
       </c>
       <c r="H54" s="3">
-        <v>261700</v>
+        <v>262200</v>
       </c>
       <c r="I54" s="3">
-        <v>266400</v>
+        <v>266900</v>
       </c>
       <c r="J54" s="3">
-        <v>283800</v>
+        <v>284500</v>
       </c>
       <c r="K54" s="3">
         <v>312300</v>
@@ -3475,19 +3475,19 @@
         <v>17100</v>
       </c>
       <c r="F58" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="G58" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="H58" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="I58" s="3">
         <v>12800</v>
       </c>
       <c r="J58" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="K58" s="3">
         <v>8300</v>
@@ -3531,7 +3531,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="E59" s="3">
         <v>12100</v>
@@ -3540,7 +3540,7 @@
         <v>14300</v>
       </c>
       <c r="G59" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="H59" s="3">
         <v>15500</v>
@@ -3549,7 +3549,7 @@
         <v>13000</v>
       </c>
       <c r="J59" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="K59" s="3">
         <v>11300</v>
@@ -3593,19 +3593,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="E60" s="3">
         <v>29200</v>
       </c>
       <c r="F60" s="3">
-        <v>30400</v>
+        <v>30500</v>
       </c>
       <c r="G60" s="3">
         <v>34000</v>
       </c>
       <c r="H60" s="3">
-        <v>29900</v>
+        <v>30000</v>
       </c>
       <c r="I60" s="3">
         <v>25800</v>
@@ -3658,7 +3658,7 @@
         <v>5500</v>
       </c>
       <c r="E61" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F61" s="3">
         <v>6400</v>
@@ -3720,7 +3720,7 @@
         <v>1000</v>
       </c>
       <c r="E62" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F62" s="3">
         <v>1800</v>
@@ -3965,22 +3965,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33200</v>
+        <v>33300</v>
       </c>
       <c r="E66" s="3">
-        <v>36200</v>
+        <v>36300</v>
       </c>
       <c r="F66" s="3">
-        <v>38600</v>
+        <v>38700</v>
       </c>
       <c r="G66" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="H66" s="3">
-        <v>39300</v>
+        <v>39400</v>
       </c>
       <c r="I66" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="J66" s="3">
         <v>32100</v>
@@ -4299,25 +4299,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-265100</v>
+        <v>-265700</v>
       </c>
       <c r="E72" s="3">
-        <v>-244800</v>
+        <v>-245400</v>
       </c>
       <c r="F72" s="3">
-        <v>-223900</v>
+        <v>-224400</v>
       </c>
       <c r="G72" s="3">
-        <v>-205900</v>
+        <v>-206400</v>
       </c>
       <c r="H72" s="3">
-        <v>-182200</v>
+        <v>-182600</v>
       </c>
       <c r="I72" s="3">
-        <v>-162100</v>
+        <v>-162400</v>
       </c>
       <c r="J72" s="3">
-        <v>-140200</v>
+        <v>-140500</v>
       </c>
       <c r="K72" s="3">
         <v>-126400</v>
@@ -4547,25 +4547,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>156600</v>
+        <v>157000</v>
       </c>
       <c r="E76" s="3">
-        <v>166800</v>
+        <v>167200</v>
       </c>
       <c r="F76" s="3">
-        <v>189600</v>
+        <v>190000</v>
       </c>
       <c r="G76" s="3">
-        <v>210400</v>
+        <v>210800</v>
       </c>
       <c r="H76" s="3">
-        <v>222300</v>
+        <v>222800</v>
       </c>
       <c r="I76" s="3">
-        <v>230400</v>
+        <v>230900</v>
       </c>
       <c r="J76" s="3">
-        <v>251800</v>
+        <v>252300</v>
       </c>
       <c r="K76" s="3">
         <v>280800</v>
@@ -4738,10 +4738,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="E81" s="3">
-        <v>-20900</v>
+        <v>-21000</v>
       </c>
       <c r="F81" s="3">
         <v>-18000</v>
@@ -4753,10 +4753,10 @@
         <v>-20200</v>
       </c>
       <c r="I81" s="3">
-        <v>-21800</v>
+        <v>-21900</v>
       </c>
       <c r="J81" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="K81" s="3">
         <v>-18400</v>
@@ -5208,7 +5208,7 @@
         <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>-28200</v>
+        <v>-28300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -5480,7 +5480,7 @@
         <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>-26600</v>
+        <v>-26700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -5876,7 +5876,7 @@
         <v>3</v>
       </c>
       <c r="H101" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -5938,7 +5938,7 @@
         <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>-40500</v>
+        <v>-40600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
